--- a/biology/Botanique/Rorippe_sylvestre/Rorippe_sylvestre.xlsx
+++ b/biology/Botanique/Rorippe_sylvestre/Rorippe_sylvestre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cresson des bois, Rorippe sylvestre
 Rorippa sylvestris, le Cresson des bois, Cresson des forêts ou Rorippe des forêts,  est une espèce végétale herbacée de la famille des Brassicaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angiosperme dicotylédone de la famille des Brassicacées (anciennement les Cruciformes), le cresson des bois est une plante herbacée de petite taille qui, contrairement à ce que son nom laisse penser, ne pousse pas du tout dans les bois.
 Son système racinaire est développé autour d'une grosse racine pivotante, lui permettant de se développer sur des écologies comme les grèves.
